--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt7a-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,7 @@
     <t>Fzd10</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +522,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,34 +543,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N2">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O2">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P2">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q2">
-        <v>0.0006510846808888889</v>
+        <v>0.017917179544</v>
       </c>
       <c r="R2">
-        <v>0.005859762128</v>
+        <v>0.161254615896</v>
       </c>
       <c r="S2">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="T2">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +584,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -617,152 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N3">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q3">
-        <v>0.017917179544</v>
+        <v>0.004395137384</v>
       </c>
       <c r="R3">
-        <v>0.161254615896</v>
+        <v>0.039556236456</v>
       </c>
       <c r="S3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="T3">
-        <v>0.5357808368657405</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.2105253333333333</v>
-      </c>
-      <c r="H4">
-        <v>0.631576</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N4">
-        <v>0.119083</v>
-      </c>
-      <c r="O4">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P4">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q4">
-        <v>0.008356662756444446</v>
-      </c>
-      <c r="R4">
-        <v>0.075209964808</v>
-      </c>
-      <c r="S4">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="T4">
-        <v>0.249890880094011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.2105253333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.631576</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.092858</v>
-      </c>
-      <c r="O5">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P5">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q5">
-        <v>0.006516320467555556</v>
-      </c>
-      <c r="R5">
-        <v>0.058646884208</v>
-      </c>
-      <c r="S5">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="T5">
-        <v>0.1948587736601334</v>
+        <v>0.1969825634057971</v>
       </c>
     </row>
   </sheetData>
